--- a/biology/Botanique/Salacca/Salacca.xlsx
+++ b/biology/Botanique/Salacca/Salacca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salacca est un genre de plantes de la famille des Arecaceae (Palmiers) qui comprend une vingtaine d'espèces natives de l'Asie tropicale du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des palmiers au stipe relativement court, avec des feuilles de grande taille, au pétiole épineux. Le plus souvent elles sont pennées, avec de nombreuses folioles.
 Le fruit pousse en grappe à la base de la plante. Il est comestible dans de nombreuses espèces. Sa peau écailleuse brun-rouge enrobe une pulpe blanche et une (rarement deux) large graine non comestible. Le Salak (Salacca zalacca) est l'espèce la plus couramment plantée pour ses fruits.
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Calamoideae
 Tribu des Calameae
-Sous-tribu des Salaccinae[1]
+Sous-tribu des Salaccinae
 Sa sous-tribu comprend un autre genre : Eleiodoxa.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre comprend une vingtaine d'espèces.
 Salacca affinis Griff.
